--- a/artfynd/A 7672-2023.xlsx
+++ b/artfynd/A 7672-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112419991</v>
       </c>
       <c r="B2" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112421322</v>
+        <v>112421694</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,32 +810,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -843,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491128</v>
+        <v>491106</v>
       </c>
       <c r="R3" t="n">
-        <v>6954848</v>
+        <v>6954854</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -878,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -888,7 +884,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Många tussar av Lunglav på en lång fallen sälg</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -915,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112430267</v>
+        <v>112422037</v>
       </c>
       <c r="B4" t="n">
-        <v>77389</v>
+        <v>78713</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,40 +932,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Högberget, Jmt</t>
+          <t>Högberget (Högberget), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491026</v>
+        <v>491071</v>
       </c>
       <c r="R4" t="n">
-        <v>6954834</v>
+        <v>6954842</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -991,14 +990,24 @@
           <t>2023-09-30</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Kan också vara ickemörk kolflarnlav. Fanns på kolad mycket gammal stubbe.</t>
+          <t>Annars nästan bara gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1007,7 +1016,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1026,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112423544</v>
+        <v>112421322</v>
       </c>
       <c r="B5" t="n">
-        <v>78699</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,28 +1046,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1067,10 +1079,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>491079</v>
+        <v>491128</v>
       </c>
       <c r="R5" t="n">
-        <v>6954795</v>
+        <v>6954848</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1102,7 +1114,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1112,7 +1124,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1139,10 +1151,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112422037</v>
+        <v>112430267</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>77403</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,38 +1167,40 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Högberget (Högberget), Jmt</t>
+          <t>Högberget, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>491071</v>
+        <v>491026</v>
       </c>
       <c r="R6" t="n">
-        <v>6954842</v>
+        <v>6954834</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1213,24 +1227,14 @@
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Annars nästan bara gran</t>
+          <t>Kan också vara ickemörk kolflarnlav. Fanns på kolad mycket gammal stubbe.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1239,6 +1243,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1257,10 +1262,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112421694</v>
+        <v>112423544</v>
       </c>
       <c r="B7" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1298,10 +1303,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>491106</v>
+        <v>491079</v>
       </c>
       <c r="R7" t="n">
-        <v>6954854</v>
+        <v>6954795</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1333,7 +1338,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1343,12 +1348,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:54</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Många tussar av Lunglav på en lång fallen sälg</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 7672-2023.xlsx
+++ b/artfynd/A 7672-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112419991</v>
+        <v>112422037</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>78713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491191</v>
+        <v>491071</v>
       </c>
       <c r="R2" t="n">
-        <v>6954885</v>
+        <v>6954842</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Väldigt lavrik plats</t>
+          <t>Annars nästan bara gran</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112421694</v>
+        <v>112423544</v>
       </c>
       <c r="B3" t="n">
         <v>78713</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491106</v>
+        <v>491079</v>
       </c>
       <c r="R3" t="n">
-        <v>6954854</v>
+        <v>6954795</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,12 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:54</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Många tussar av Lunglav på en lång fallen sälg</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -916,7 +911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112422037</v>
+        <v>112421694</v>
       </c>
       <c r="B4" t="n">
         <v>78713</v>
@@ -957,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491071</v>
+        <v>491106</v>
       </c>
       <c r="R4" t="n">
-        <v>6954842</v>
+        <v>6954854</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -992,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1002,12 +997,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Annars nästan bara gran</t>
+          <t>Många tussar av Lunglav på en lång fallen sälg</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112421322</v>
+        <v>112430267</v>
       </c>
       <c r="B5" t="n">
-        <v>96735</v>
+        <v>77403</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,46 +1041,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Högberget (Högberget), Jmt</t>
+          <t>Högberget, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>491128</v>
+        <v>491026</v>
       </c>
       <c r="R5" t="n">
-        <v>6954848</v>
+        <v>6954834</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1112,19 +1105,14 @@
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>15:41</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15:41</t>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Kan också vara ickemörk kolflarnlav. Fanns på kolad mycket gammal stubbe.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,6 +1121,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1151,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112430267</v>
+        <v>112419991</v>
       </c>
       <c r="B6" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1167,40 +1156,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Högberget, Jmt</t>
+          <t>Högberget (Högberget), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>491026</v>
+        <v>491191</v>
       </c>
       <c r="R6" t="n">
-        <v>6954834</v>
+        <v>6954885</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1227,14 +1214,24 @@
           <t>2023-09-30</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>14:41</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>14:41</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Kan också vara ickemörk kolflarnlav. Fanns på kolad mycket gammal stubbe.</t>
+          <t>Väldigt lavrik plats</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1243,7 +1240,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1262,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112423544</v>
+        <v>112421322</v>
       </c>
       <c r="B7" t="n">
-        <v>78713</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,28 +1270,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>491079</v>
+        <v>491128</v>
       </c>
       <c r="R7" t="n">
-        <v>6954795</v>
+        <v>6954848</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
